--- a/output/aggregate_tables/Analysis Group Statistics/Area 77_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 77_summary.xlsx
@@ -1534,17 +1534,39 @@
       <c r="M4" s="4" t="n">
         <v>30.76923076923077</v>
       </c>
-      <c r="N4" s="4" t="n"/>
-      <c r="O4" s="4" t="n"/>
-      <c r="P4" s="4" t="n"/>
-      <c r="Q4" s="4" t="n"/>
-      <c r="R4" s="4" t="n"/>
-      <c r="S4" s="4" t="n"/>
-      <c r="T4" s="4" t="n"/>
-      <c r="U4" s="4" t="n"/>
-      <c r="V4" s="4" t="n"/>
-      <c r="W4" s="4" t="n"/>
-      <c r="X4" s="4" t="n"/>
+      <c r="N4" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>26.31578947368421</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>57.89473684210527</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>15.78947368421053</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>84.21052631578947</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>15.78947368421053</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1663,34 +1685,34 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.5712552000638293</v>
+        <v>0.5658201593125666</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.4912809810954071</v>
+        <v>0.4928605688984374</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.2315688688407636</v>
+        <v>0.2456524769278848</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.062536181159236</v>
+        <v>1.058680728211004</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.2315688688407636</v>
+        <v>0.2456524769278848</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>44.14287696843694</v>
+        <v>43.3800318111442</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>37.96299080166693</v>
+        <v>37.78640051151319</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.89413222989614</v>
+        <v>18.83356767734262</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>82.10586777010386</v>
+        <v>81.16643232265739</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>17.89413222989614</v>
+        <v>18.83356767734262</v>
       </c>
     </row>
   </sheetData>
@@ -1808,34 +1830,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.4996996326395869</v>
+        <v>0.5002324090095364</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.4040967714456427</v>
+        <v>0.405676359248673</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.2039781617789593</v>
+        <v>0.2044138111361074</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.9037964040852297</v>
+        <v>0.9059087682582093</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.2039781617789593</v>
+        <v>0.2044138111361074</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>45.10842260128666</v>
+        <v>45.05288988020168</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>36.47824962747739</v>
+        <v>36.536801716666</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>18.41332777123596</v>
+        <v>18.41030840313232</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>81.58667222876404</v>
+        <v>81.58969159686768</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.41332777123596</v>
+        <v>18.41030840313232</v>
       </c>
     </row>
     <row r="5">
@@ -1843,34 +1865,34 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="n">
-        <v>0.07155556742424243</v>
+        <v>0.06558775030303031</v>
       </c>
       <c r="C5" s="12" t="n">
         <v>0.08246420964976443</v>
       </c>
       <c r="D5" s="12" t="n">
-        <v>0.02759070706180427</v>
+        <v>0.04123866579177735</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.1540197770740069</v>
+        <v>0.1480519599527947</v>
       </c>
       <c r="F5" s="12" t="n">
-        <v>0.02759070706180427</v>
+        <v>0.04123866579177735</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>39.40057082317563</v>
+        <v>34.64923318048201</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>45.40718562706788</v>
+        <v>43.56486715884244</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.19224354975647</v>
+        <v>21.78589966067555</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>84.80775645024352</v>
+        <v>78.21410033932446</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.19224354975647</v>
+        <v>21.78589966067555</v>
       </c>
     </row>
     <row r="6">
@@ -1915,34 +1937,34 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.5712552000638293</v>
+        <v>0.5658201593125666</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.4912809810954071</v>
+        <v>0.4928605688984374</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.2315688688407636</v>
+        <v>0.2456524769278848</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>1.062536181159236</v>
+        <v>1.058680728211004</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>0.2315688688407636</v>
+        <v>0.2456524769278848</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>44.14287696843694</v>
+        <v>43.3800318111442</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>37.96299080166693</v>
+        <v>37.78640051151319</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>17.89413222989614</v>
+        <v>18.83356767734262</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>82.10586777010386</v>
+        <v>81.16643232265739</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>17.89413222989614</v>
+        <v>18.83356767734262</v>
       </c>
     </row>
   </sheetData>
@@ -2062,19 +2084,19 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>44.14287696843694</v>
+        <v>43.3800318111442</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>37.96299080166693</v>
+        <v>37.78640051151319</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>17.89413222989614</v>
+        <v>18.83356767734262</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>82.10586777010386</v>
+        <v>81.16643232265739</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.89413222989614</v>
+        <v>18.83356767734262</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>0.1602506719951143</v>
